--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H2">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>74.08958833333334</v>
+        <v>0.055614</v>
       </c>
       <c r="N2">
-        <v>222.268765</v>
+        <v>0.166842</v>
       </c>
       <c r="O2">
-        <v>0.749631794917355</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="P2">
-        <v>0.7496317949173549</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="Q2">
-        <v>11606.61166799265</v>
+        <v>1.539192399134</v>
       </c>
       <c r="R2">
-        <v>104459.5050119339</v>
+        <v>13.852731592206</v>
       </c>
       <c r="S2">
-        <v>0.05034348805691852</v>
+        <v>1.893376270547482E-05</v>
       </c>
       <c r="T2">
-        <v>0.05034348805691851</v>
+        <v>1.893376270547482E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H3">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.756517</v>
       </c>
       <c r="O3">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="P3">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="Q3">
-        <v>39.50442177169966</v>
+        <v>6.979209169247889</v>
       </c>
       <c r="R3">
-        <v>355.539795945297</v>
+        <v>62.812882523231</v>
       </c>
       <c r="S3">
-        <v>0.0001713497825677658</v>
+        <v>8.585196389792555E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001713497825677657</v>
+        <v>8.585196389792555E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H4">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.011929</v>
+        <v>4.376294333333333</v>
       </c>
       <c r="N4">
-        <v>9.035787000000001</v>
+        <v>13.128883</v>
       </c>
       <c r="O4">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="P4">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="Q4">
-        <v>471.838095756263</v>
+        <v>121.1198434609965</v>
       </c>
       <c r="R4">
-        <v>4246.542861806367</v>
+        <v>1090.078591148969</v>
       </c>
       <c r="S4">
-        <v>0.002046590014208067</v>
+        <v>0.001489907549117982</v>
       </c>
       <c r="T4">
-        <v>0.002046590014208067</v>
+        <v>0.001489907549117982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H5">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.48095</v>
+        <v>12.83925333333333</v>
       </c>
       <c r="N5">
-        <v>64.44284999999999</v>
+        <v>38.51776</v>
       </c>
       <c r="O5">
-        <v>0.2173423211987967</v>
+        <v>0.732694664915554</v>
       </c>
       <c r="P5">
-        <v>0.2173423211987967</v>
+        <v>0.7326946649155539</v>
       </c>
       <c r="Q5">
-        <v>3365.129305184649</v>
+        <v>355.3436390337422</v>
       </c>
       <c r="R5">
-        <v>30286.16374666184</v>
+        <v>3198.09275130368</v>
       </c>
       <c r="S5">
-        <v>0.01459619325877296</v>
+        <v>0.004371118350214154</v>
       </c>
       <c r="T5">
-        <v>0.01459619325877296</v>
+        <v>0.004371118350214153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>74.08958833333334</v>
+        <v>0.055614</v>
       </c>
       <c r="N6">
-        <v>222.268765</v>
+        <v>0.166842</v>
       </c>
       <c r="O6">
-        <v>0.749631794917355</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="P6">
-        <v>0.7496317949173549</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="Q6">
-        <v>3134.040856495127</v>
+        <v>2.352510684888</v>
       </c>
       <c r="R6">
-        <v>28206.36770845614</v>
+        <v>21.172596163992</v>
       </c>
       <c r="S6">
-        <v>0.01359385089655065</v>
+        <v>2.893847390022466E-05</v>
       </c>
       <c r="T6">
-        <v>0.01359385089655064</v>
+        <v>2.893847390022465E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.756517</v>
       </c>
       <c r="O7">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="P7">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="Q7">
         <v>10.66706420325467</v>
@@ -883,10 +883,10 @@
         <v>96.003577829292</v>
       </c>
       <c r="S7">
-        <v>4.626821631328092E-05</v>
+        <v>0.0001312166448470784</v>
       </c>
       <c r="T7">
-        <v>4.626821631328092E-05</v>
+        <v>0.0001312166448470784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.011929</v>
+        <v>4.376294333333333</v>
       </c>
       <c r="N8">
-        <v>9.035787000000001</v>
+        <v>13.128883</v>
       </c>
       <c r="O8">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="P8">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="Q8">
-        <v>127.406680954868</v>
+        <v>185.1202786956786</v>
       </c>
       <c r="R8">
-        <v>1146.660128593812</v>
+        <v>1666.082508261108</v>
       </c>
       <c r="S8">
-        <v>0.0005526243924151496</v>
+        <v>0.002277183431237957</v>
       </c>
       <c r="T8">
-        <v>0.0005526243924151496</v>
+        <v>0.002277183431237957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.48095</v>
+        <v>12.83925333333333</v>
       </c>
       <c r="N9">
-        <v>64.44284999999999</v>
+        <v>38.51776</v>
       </c>
       <c r="O9">
-        <v>0.2173423211987967</v>
+        <v>0.732694664915554</v>
       </c>
       <c r="P9">
-        <v>0.2173423211987967</v>
+        <v>0.7326946649155539</v>
       </c>
       <c r="Q9">
-        <v>908.6590498173998</v>
+        <v>543.1093007633067</v>
       </c>
       <c r="R9">
-        <v>8177.931448356599</v>
+        <v>4887.98370686976</v>
       </c>
       <c r="S9">
-        <v>0.003941293749703331</v>
+        <v>0.006680842907991497</v>
       </c>
       <c r="T9">
-        <v>0.003941293749703331</v>
+        <v>0.006680842907991496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H10">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>74.08958833333334</v>
+        <v>0.055614</v>
       </c>
       <c r="N10">
-        <v>222.268765</v>
+        <v>0.166842</v>
       </c>
       <c r="O10">
-        <v>0.749631794917355</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="P10">
-        <v>0.7496317949173549</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="Q10">
-        <v>1742.694004179436</v>
+        <v>1.645785213228</v>
       </c>
       <c r="R10">
-        <v>15684.24603761492</v>
+        <v>14.812066919052</v>
       </c>
       <c r="S10">
-        <v>0.007558906707304725</v>
+        <v>2.024497178453478E-05</v>
       </c>
       <c r="T10">
-        <v>0.007558906707304723</v>
+        <v>2.024497178453478E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H11">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.756517</v>
       </c>
       <c r="O11">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="P11">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="Q11">
-        <v>5.931457080619556</v>
+        <v>7.462536364678</v>
       </c>
       <c r="R11">
-        <v>53.383113725576</v>
+        <v>67.162827282102</v>
       </c>
       <c r="S11">
-        <v>2.572759796226901E-05</v>
+        <v>9.179742103020163E-05</v>
       </c>
       <c r="T11">
-        <v>2.5727597962269E-05</v>
+        <v>9.179742103020162E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H12">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.011929</v>
+        <v>4.376294333333333</v>
       </c>
       <c r="N12">
-        <v>9.035787000000001</v>
+        <v>13.128883</v>
       </c>
       <c r="O12">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="P12">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="Q12">
-        <v>70.84491528957068</v>
+        <v>129.507686958922</v>
       </c>
       <c r="R12">
-        <v>637.6042376061361</v>
+        <v>1165.569182630298</v>
       </c>
       <c r="S12">
-        <v>0.0003072886600151706</v>
+        <v>0.001593087267579257</v>
       </c>
       <c r="T12">
-        <v>0.0003072886600151705</v>
+        <v>0.001593087267579257</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H13">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.48095</v>
+        <v>12.83925333333333</v>
       </c>
       <c r="N13">
-        <v>64.44284999999999</v>
+        <v>38.51776</v>
       </c>
       <c r="O13">
-        <v>0.2173423211987967</v>
+        <v>0.732694664915554</v>
       </c>
       <c r="P13">
-        <v>0.2173423211987967</v>
+        <v>0.7326946649155539</v>
       </c>
       <c r="Q13">
-        <v>505.2629338505333</v>
+        <v>379.95204957184</v>
       </c>
       <c r="R13">
-        <v>4547.3664046548</v>
+        <v>3419.56844614656</v>
       </c>
       <c r="S13">
-        <v>0.002191569702125407</v>
+        <v>0.00467382891839874</v>
       </c>
       <c r="T13">
-        <v>0.002191569702125407</v>
+        <v>0.004673828918398739</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H14">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I14">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J14">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>74.08958833333334</v>
+        <v>0.055614</v>
       </c>
       <c r="N14">
-        <v>222.268765</v>
+        <v>0.166842</v>
       </c>
       <c r="O14">
-        <v>0.749631794917355</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="P14">
-        <v>0.7496317949173549</v>
+        <v>0.003173711121411028</v>
       </c>
       <c r="Q14">
-        <v>156343.0799547148</v>
+        <v>252.464690726066</v>
       </c>
       <c r="R14">
-        <v>1407087.719592433</v>
+        <v>2272.182216534594</v>
       </c>
       <c r="S14">
-        <v>0.6781355492565811</v>
+        <v>0.003105593913020794</v>
       </c>
       <c r="T14">
-        <v>0.678135549256581</v>
+        <v>0.003105593913020794</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H15">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I15">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J15">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.756517</v>
       </c>
       <c r="O15">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="P15">
-        <v>0.002551457001146754</v>
+        <v>0.01439065952479895</v>
       </c>
       <c r="Q15">
-        <v>532.1314392424907</v>
+        <v>1144.758696455397</v>
       </c>
       <c r="R15">
-        <v>4789.182953182417</v>
+        <v>10302.82826809857</v>
       </c>
       <c r="S15">
-        <v>0.002308111404303439</v>
+        <v>0.01408179349502375</v>
       </c>
       <c r="T15">
-        <v>0.002308111404303438</v>
+        <v>0.01408179349502375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H16">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I16">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J16">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.011929</v>
+        <v>4.376294333333333</v>
       </c>
       <c r="N16">
-        <v>9.035787000000001</v>
+        <v>13.128883</v>
       </c>
       <c r="O16">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="P16">
-        <v>0.03047442688270168</v>
+        <v>0.2497409644382361</v>
       </c>
       <c r="Q16">
-        <v>6355.741299929265</v>
+        <v>19866.57667837658</v>
       </c>
       <c r="R16">
-        <v>57201.67169936339</v>
+        <v>178799.1901053893</v>
       </c>
       <c r="S16">
-        <v>0.02756792381606329</v>
+        <v>0.2443807861903009</v>
       </c>
       <c r="T16">
-        <v>0.02756792381606329</v>
+        <v>0.2443807861903009</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H17">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I17">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J17">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.48095</v>
+        <v>12.83925333333333</v>
       </c>
       <c r="N17">
-        <v>64.44284999999999</v>
+        <v>38.51776</v>
       </c>
       <c r="O17">
-        <v>0.2173423211987967</v>
+        <v>0.732694664915554</v>
       </c>
       <c r="P17">
-        <v>0.2173423211987967</v>
+        <v>0.7326946649155539</v>
       </c>
       <c r="Q17">
-        <v>45328.87763181519</v>
+        <v>58284.93044833337</v>
       </c>
       <c r="R17">
-        <v>407959.8986863368</v>
+        <v>524564.3740350003</v>
       </c>
       <c r="S17">
-        <v>0.196613264488195</v>
+        <v>0.7169688747389495</v>
       </c>
       <c r="T17">
-        <v>0.196613264488195</v>
+        <v>0.7169688747389495</v>
       </c>
     </row>
   </sheetData>
